--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2355568.941826205</v>
+        <v>2419994.175804575</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484441</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5296771.353051113</v>
+        <v>5354063.810008142</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>82.56080135907459</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>353.4970973193114</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -820,10 +820,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>147.4117784897779</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>67.46538592382007</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>201.3877264506304</v>
       </c>
       <c r="E5" t="n">
-        <v>358.9218423228526</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -959,7 +959,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083441</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>198.0298234923751</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.9248217542668</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>246.0875767325615</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,7 +1145,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>161.4258646586666</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791307478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633445</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>24.6270352077674</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>52.5117099198479</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>309.2588241657146</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,22 +1765,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>31.24391673888151</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>64.90507698037152</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>253.1555573624922</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225768</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>8.909245336631695</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112152</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,7 +2722,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>103.3456594571959</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>136.1614161296816</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3089,7 +3089,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>101.1195220207932</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3433,13 +3433,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>84.71997427496046</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>77.8404144888692</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3743,7 +3743,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>211.0659068138796</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>61.43755362247128</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>240.9739924674999</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199177</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>206.4855017772242</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>24.62703520776672</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,10 +4189,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.14448398095</v>
+        <v>1571.10956023096</v>
       </c>
       <c r="C2" t="n">
-        <v>1208.7497351334</v>
+        <v>1537.007491454787</v>
       </c>
       <c r="D2" t="n">
-        <v>1176.880354348248</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>748.2986800855164</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>724.4716545351282</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4337,16 +4337,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N2" t="n">
         <v>267.8706684926505</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.403650425453</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,31 +4395,31 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
         <v>1159.957753041174</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.3833729168607</v>
+        <v>355.4061664716945</v>
       </c>
       <c r="C4" t="n">
-        <v>199.8216614000857</v>
+        <v>182.8444549549194</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>182.8444549549194</v>
       </c>
       <c r="E4" t="n">
         <v>33.94366860160834</v>
@@ -4486,25 +4486,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1629.036575611912</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1350.603574865018</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1063.648066735448</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W4" t="n">
-        <v>791.6216623217397</v>
+        <v>1020.036210543161</v>
       </c>
       <c r="X4" t="n">
-        <v>791.6216623217397</v>
+        <v>774.6444558765734</v>
       </c>
       <c r="Y4" t="n">
-        <v>564.2019916358479</v>
+        <v>547.2247851906816</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.1040799405456</v>
+        <v>341.5177676270664</v>
       </c>
       <c r="C5" t="n">
-        <v>854.002011164373</v>
+        <v>307.4156988508938</v>
       </c>
       <c r="D5" t="n">
-        <v>822.1326303792216</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>74.25941213986528</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.7649106726448</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657691</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2217.900228530729</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1958.677925847746</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1596.060975781573</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.751429465681</v>
+        <v>1595.24592523301</v>
       </c>
       <c r="X5" t="n">
-        <v>1318.649370085396</v>
+        <v>1176.103461812321</v>
       </c>
       <c r="Y5" t="n">
-        <v>910.3632463850494</v>
+        <v>767.8173381119742</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>76.49605974993467</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>593.0357356940381</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>420.474024177263</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>254.5960313787857</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>254.5960313787857</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>254.5960313787857</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>254.5960313787857</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.160939331176</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>1497.153305340644</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1251.761550674057</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>1024.341879988165</v>
+        <v>784.8543544130252</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.8743158913576</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>520.7722471151849</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004227</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>102.677629643639</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363479</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111519</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111519</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111519</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111519</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111519</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111519</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987282</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C13" t="n">
-        <v>633.668102581953</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881912</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583903</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170195</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503607</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177154</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.2639626146351</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940406</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940406</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4753.146960239596</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4493.924657556614</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.542006884175</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.686552295208</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.544088874519</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.257965174172</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111519</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111519</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111519</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111519</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111519</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111519</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3408549543107</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987275</v>
+        <v>811.7546776883869</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>639.1929661716118</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>473.3149733731345</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935314</v>
+        <v>473.3149733731345</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2313.799635050026</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2035.366634303131</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1230.992967093266</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177147</v>
+        <v>1003.573296407374</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.025455181362</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>1906.882982364786</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423108</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>98.58334842137108</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K17" t="n">
-        <v>204.234079263895</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L17" t="n">
-        <v>1279.294045516754</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M17" t="n">
-        <v>1279.294045516754</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>2405.025028953201</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3385.204695523508</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4213.514570356903</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.013356315498</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068554</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252391</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4625.44832012543</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4366.226017442446</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4003.609067376273</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3598.753612787306</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3179.611149366617</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2771.32502566627</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137108</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>98.58334842137108</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>98.58334842137108</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>98.58334842137108</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>98.58334842137108</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>98.58334842137108</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.1882266945667</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>949.0793854983024</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C19" t="n">
-        <v>776.5176739815274</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>610.63968118305</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>440.8816774337872</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>264.1746233955434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>98.58334842137108</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137108</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137108</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860609</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.003789281486</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.124342859941</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2172.691342113047</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.735833983477</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.709429569769</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.317674903181</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1140.89800421729</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,46 +5756,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
         <v>267.852115244952</v>
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6032,7 +6032,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324585</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6157,7 +6157,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6388,7 +6388,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.146432354979</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C31" t="n">
-        <v>884.5847208382042</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>718.706728039727</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>548.9487242904643</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>372.2416702522205</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>206.6503952780482</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.384721759858</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y31" t="n">
-        <v>1248.965051073967</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6704,46 +6704,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6917,49 +6917,49 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>537.5155277236975</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>1694.563362934248</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1090.187678435286</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>917.6259669185114</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>751.7479741200341</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>581.9899703707713</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2313.799635050031</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>2026.844126920462</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1754.817722506753</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1509.425967840166</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1282.006297154274</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7175,31 +7175,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7211,7 +7211,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7248,25 +7248,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.187678435286</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>917.6259669185114</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>751.747974120034</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2026.844126920462</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1282.006297154274</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911532</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601674</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>213.7522157638331</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>213.7522157638331</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>213.7522157638331</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1370.800050974384</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410831</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981137</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814533</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773128</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526185</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.673426526185</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.475540855599</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172616</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106442</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4134685305237</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4134685305237</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>100.4134685305237</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>286.0183468037192</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1105.741513282917</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.811679917081</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C43" t="n">
-        <v>918.2499684003054</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>752.3719756018281</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>582.6139718525653</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>405.9069178143216</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>240.3156428401492</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2557.83170973132</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2557.83170973132</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2314.423636531825</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>2027.468128402256</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1755.441723988547</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1510.04996932196</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y43" t="n">
-        <v>1282.630298636068</v>
+        <v>982.1554751127544</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062125</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419993</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578288</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874956</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>386.282920610759</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>96.73597668111518</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1253.783811891666</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4544.575746323208</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257035</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247379</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547033</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.73597668111518</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>96.73597668111518</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3408549543107</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.2298140987273</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>633.6681025819523</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>608.7923094427941</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935313</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111518</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2308.274771460367</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2029.841770713472</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V46" t="n">
-        <v>1742.886262583902</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1470.859858170194</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1225.468103503606</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>998.0484328177145</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,25 +8052,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335028</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,31 +8289,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>298.8178948332411</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,19 +8459,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,16 +8614,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8693,16 +8693,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K17" t="n">
-        <v>106.7179099419434</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>903.3699580700804</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>114.4835830639489</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>1069.568313180545</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>6.497580251618729e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>139.5921776627251</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>223.1369608195778</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>49.73195639979713</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>110.0349065174898</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>178.3951296148077</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>216.2362286424011</v>
       </c>
     </row>
     <row r="20">
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.15749310933337</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>69.71657238081416</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>90.22000922290087</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>90.22000922290091</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.800648041812119</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>128.462878909326</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>34.67467827192579</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>11.38105307846756</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>442333.4107252169</v>
+        <v>461000.3861201832</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201832</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448575.1653425119</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>454758.6315028883</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041076</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="C2" t="n">
-        <v>469128.9049041076</v>
-      </c>
       <c r="D2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>442333.4107252169</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="F2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
-        <v>448575.1653425119</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="K2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="N2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>454758.6315028883</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="P2" t="n">
-        <v>442333.410725217</v>
+        <v>461000.3861201835</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501612</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998281</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877248</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622351</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970939</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687734</v>
+        <v>806.332390782538</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687734</v>
+        <v>806.3323907825377</v>
       </c>
       <c r="G4" t="n">
-        <v>784.5995283440675</v>
+        <v>806.332390782538</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825512</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,7 +26445,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907825506</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26454,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>795.4149836073079</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>773.6821211687732</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024202</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.236083198</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98344.72283741544</v>
+        <v>98344.72283741558</v>
       </c>
       <c r="C6" t="n">
-        <v>240536.0234971254</v>
+        <v>208587.3594039949</v>
       </c>
       <c r="D6" t="n">
-        <v>240536.0234971255</v>
+        <v>269884.3785741163</v>
       </c>
       <c r="E6" t="n">
-        <v>133685.3643043631</v>
+        <v>200097.4815631758</v>
       </c>
       <c r="F6" t="n">
-        <v>368040.3863264007</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="G6" t="n">
-        <v>366538.0099710753</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="H6" t="n">
-        <v>370073.0601436448</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="I6" t="n">
-        <v>382475.8151236082</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="J6" t="n">
-        <v>271461.349778618</v>
+        <v>271438.1254392354</v>
       </c>
       <c r="K6" t="n">
-        <v>382475.8151236083</v>
+        <v>329406.7361454531</v>
       </c>
       <c r="L6" t="n">
-        <v>382475.8151236083</v>
+        <v>373060.2890576032</v>
       </c>
       <c r="M6" t="n">
-        <v>186874.6358405405</v>
+        <v>230252.419846238</v>
       </c>
       <c r="N6" t="n">
-        <v>382475.8151236082</v>
+        <v>382452.5907842255</v>
       </c>
       <c r="O6" t="n">
-        <v>377648.980436083</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="P6" t="n">
-        <v>368040.3863264007</v>
+        <v>382452.5907842257</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939354</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939354</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483591</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939354</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760646</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27379,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>351.2002467293363</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>78.05358965798854</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,7 +27436,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>20.64864522199218</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27585,22 +27585,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>175.9552660335092</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>230.1629605266695</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>70.51515507043513</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395818513</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>71.27631687719625</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.1117530257919</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.376351906009373e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-4.698314381224416e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-7.391702575691383e-13</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30681,7 +30681,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,25 +34772,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335028</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,31 +35009,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684634</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741913</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>298.8178948332411</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475693</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>860.035541581457</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294903</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.017064616502</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K17" t="n">
-        <v>106.7179099419434</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157514</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36051,7 +36051,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637955999</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512945</v>
@@ -36060,7 +36060,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36756,10 +36756,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>903.3699580700804</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>114.4835830639489</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,13 +38020,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>1069.568313180545</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
